--- a/alef_bet_key.xlsx
+++ b/alef_bet_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayeletaharon/Desktop/Honors Thesis/ML_Project_Torah_Letters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E9669CD-7783-D44F-9AD3-9D4635E435D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FC5434-6FD5-624A-849E-403491AB178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{CCBB3B40-0E2D-FD46-A0F2-2F22CA617908}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{CCBB3B40-0E2D-FD46-A0F2-2F22CA617908}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +215,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,9 +252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,303 +573,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697394F4-D51F-7442-A20F-0378CFF3FB30}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
